--- a/results/Auto/genero-m1_me_parece_muy_adjetivocolores-m2.xlsx
+++ b/results/Auto/genero-m1_me_parece_muy_adjetivocolores-m2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003302662866190076</v>
+        <v>4.597535241401829e-09</v>
       </c>
       <c r="E2" t="n">
         <v>0.0001336289278697222</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002691497560590506</v>
+        <v>1.352691070266587e-09</v>
       </c>
       <c r="E3" t="n">
         <v>0.001999223371967673</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003748137271031737</v>
+        <v>1.282659978230072e-09</v>
       </c>
       <c r="E4" t="n">
         <v>6.976193253649399e-05</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005706910975277424</v>
+        <v>2.197324455721628e-08</v>
       </c>
       <c r="E5" t="n">
         <v>0.0009122836054302752</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001835536560975015</v>
+        <v>1.427068602177783e-10</v>
       </c>
       <c r="E6" t="n">
         <v>0.0005986436153762043</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0035158796235919</v>
+        <v>1.648190206537947e-08</v>
       </c>
       <c r="E7" t="n">
         <v>0.000132445216877386</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01884211041033268</v>
+        <v>2.936741338999127e-08</v>
       </c>
       <c r="E8" t="n">
         <v>0.00100416864734143</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03754198178648949</v>
+        <v>6.110804751102705e-09</v>
       </c>
       <c r="E9" t="n">
         <v>5.743439760408364e-05</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009494500234723091</v>
+        <v>3.503284418115982e-08</v>
       </c>
       <c r="E10" t="n">
         <v>0.0002049748291028664</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01212561968713999</v>
+        <v>1.501289581540277e-08</v>
       </c>
       <c r="E11" t="n">
         <v>0.001631748862564564</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001738240011036396</v>
+        <v>8.453208799608092e-09</v>
       </c>
       <c r="E12" t="n">
         <v>5.369442806113511e-05</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003482843050733209</v>
+        <v>2.701186652132037e-08</v>
       </c>
       <c r="E13" t="n">
         <v>0.0004184490535408258</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.009371564723551273</v>
+        <v>4.420259269721782e-09</v>
       </c>
       <c r="E14" t="n">
         <v>0.0003899383300449699</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006811033934354782</v>
+        <v>1.13993188222139e-08</v>
       </c>
       <c r="E15" t="n">
         <v>0.0005374932661652565</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005940349772572517</v>
+        <v>4.979141721150881e-08</v>
       </c>
       <c r="E16" t="n">
         <v>0.0001570544409332797</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006013080943375826</v>
+        <v>3.26429372421444e-08</v>
       </c>
       <c r="E17" t="n">
         <v>0.001879835384897888</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01506088115274906</v>
+        <v>2.625161199532045e-09</v>
       </c>
       <c r="E18" t="n">
         <v>0.0006693762843497097</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00586723443120718</v>
+        <v>2.02214938127554e-08</v>
       </c>
       <c r="E19" t="n">
         <v>0.0007706775795668364</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00569428876042366</v>
+        <v>4.058280378416157e-09</v>
       </c>
       <c r="E20" t="n">
         <v>2.043169115495402e-05</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003969030454754829</v>
+        <v>2.667270138090316e-08</v>
       </c>
       <c r="E21" t="n">
         <v>0.0001175627185148187</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008737040683627129</v>
+        <v>9.397304268077278e-09</v>
       </c>
       <c r="E22" t="n">
         <v>0.0002360840589972213</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01708796061575413</v>
+        <v>1.920551717660146e-08</v>
       </c>
       <c r="E23" t="n">
         <v>0.001229752320796251</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0007049831910990179</v>
+        <v>1.873624144721475e-09</v>
       </c>
       <c r="E24" t="n">
         <v>3.288956577307545e-05</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.007912774570286274</v>
+        <v>3.144499383100907e-10</v>
       </c>
       <c r="E25" t="n">
         <v>5.497913662111387e-06</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008179804310202599</v>
+        <v>7.118955380747138e-08</v>
       </c>
       <c r="E26" t="n">
         <v>0.0005314531153999269</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01681181602180004</v>
+        <v>2.703776758039567e-08</v>
       </c>
       <c r="E27" t="n">
         <v>0.0003331775369588286</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01471661683171988</v>
+        <v>2.870672144439368e-09</v>
       </c>
       <c r="E28" t="n">
         <v>0.0005792282754555345</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.007271317765116692</v>
+        <v>1.094319981853609e-10</v>
       </c>
       <c r="E29" t="n">
         <v>6.928932634764351e-06</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0144147053360939</v>
+        <v>3.763263034528563e-09</v>
       </c>
       <c r="E30" t="n">
         <v>4.188310413155705e-05</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.006610925775021315</v>
+        <v>3.520275981827581e-08</v>
       </c>
       <c r="E31" t="n">
         <v>0.000592516444157809</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.007994266226887703</v>
+        <v>2.564757828338315e-08</v>
       </c>
       <c r="E32" t="n">
         <v>0.0005345812533050776</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.005815219134092331</v>
+        <v>6.931164531209788e-09</v>
       </c>
       <c r="E33" t="n">
         <v>0.0006633918965235353</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.007152099162340164</v>
+        <v>5.012381620872475e-09</v>
       </c>
       <c r="E34" t="n">
         <v>1.519488341727993e-05</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03480818122625351</v>
+        <v>7.334245655243876e-09</v>
       </c>
       <c r="E35" t="n">
         <v>0.001232443493790925</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003207472153007984</v>
+        <v>1.525542181468609e-08</v>
       </c>
       <c r="E36" t="n">
         <v>0.0009624660015106201</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001572562265209854</v>
+        <v>1.023416906775765e-08</v>
       </c>
       <c r="E37" t="n">
         <v>0.000130505082779564</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01208758633583784</v>
+        <v>2.529428044795168e-08</v>
       </c>
       <c r="E38" t="n">
         <v>0.0005580705474130809</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01208758633583784</v>
+        <v>2.529428044795168e-08</v>
       </c>
       <c r="E39" t="n">
         <v>0.0005580705474130809</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.022161565721035</v>
+        <v>3.367927092767786e-08</v>
       </c>
       <c r="E40" t="n">
         <v>0.0001145660935435444</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003686240874230862</v>
+        <v>2.29033787491062e-08</v>
       </c>
       <c r="E41" t="n">
         <v>0.003067198442295194</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002102058148011565</v>
+        <v>3.316165786415581e-09</v>
       </c>
       <c r="E42" t="n">
         <v>0.0001405952061759308</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003490972798317671</v>
+        <v>1.603504773406428e-09</v>
       </c>
       <c r="E43" t="n">
         <v>0.0003285229613538831</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02869439125061035</v>
+        <v>8.119126704286828e-09</v>
       </c>
       <c r="E44" t="n">
         <v>0.0004647127934731543</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00748249189928174</v>
+        <v>1.749720368593444e-09</v>
       </c>
       <c r="E45" t="n">
         <v>0.0003030022198799998</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002124937949702144</v>
+        <v>9.163082737018158e-09</v>
       </c>
       <c r="E46" t="n">
         <v>2.22645940084476e-05</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0003534923307597637</v>
+        <v>1.195825383160098e-10</v>
       </c>
       <c r="E47" t="n">
         <v>4.037380494992249e-05</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004033477045595646</v>
+        <v>1.166260688023613e-08</v>
       </c>
       <c r="E48" t="n">
         <v>0.000476641725981608</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.009464448317885399</v>
+        <v>3.130628556391457e-08</v>
       </c>
       <c r="E49" t="n">
         <v>0.0009053490939550102</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001562036108225584</v>
+        <v>5.992936991106035e-08</v>
       </c>
       <c r="E50" t="n">
         <v>0.001574282767251134</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0112436693161726</v>
+        <v>4.881583581806126e-09</v>
       </c>
       <c r="E51" t="n">
         <v>0.000108831976831425</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01243568770587444</v>
+        <v>2.824715794602639e-09</v>
       </c>
       <c r="E52" t="n">
         <v>0.0007723353337496519</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001452657394111156</v>
+        <v>1.737529764511692e-08</v>
       </c>
       <c r="E53" t="n">
         <v>0.00018289327272214</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02007727138698101</v>
+        <v>2.541288424140475e-08</v>
       </c>
       <c r="E54" t="n">
         <v>0.001179627375677228</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01639124006032944</v>
+        <v>5.312343898111749e-09</v>
       </c>
       <c r="E55" t="n">
         <v>0.0004964745603501797</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01060830242931843</v>
+        <v>2.177807267855769e-08</v>
       </c>
       <c r="E56" t="n">
         <v>0.005169274285435677</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.001643885625526309</v>
+        <v>2.724436232171001e-09</v>
       </c>
       <c r="E57" t="n">
         <v>0.006322208326309919</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01562975905835629</v>
+        <v>2.850463509673773e-08</v>
       </c>
       <c r="E58" t="n">
         <v>0.0003684759722091258</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.006562754511833191</v>
+        <v>2.846714686199903e-08</v>
       </c>
       <c r="E59" t="n">
         <v>0.0002487843448761851</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.004875790327787399</v>
+        <v>2.565689882771949e-09</v>
       </c>
       <c r="E60" t="n">
         <v>2.712688728934154e-05</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.007074763998389244</v>
+        <v>2.192672177159238e-08</v>
       </c>
       <c r="E61" t="n">
         <v>0.002777911955490708</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01445893570780754</v>
+        <v>1.08830966460971e-09</v>
       </c>
       <c r="E62" t="n">
         <v>0.0002059426624327898</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01590587384998798</v>
+        <v>4.343358384062412e-08</v>
       </c>
       <c r="E63" t="n">
         <v>0.0005019130185246468</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01116952951997519</v>
+        <v>1.593432941149331e-08</v>
       </c>
       <c r="E64" t="n">
         <v>0.00010559699148871</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006062918808311224</v>
+        <v>2.245072217021971e-08</v>
       </c>
       <c r="E65" t="n">
         <v>9.53351627686061e-05</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.007466758601367474</v>
+        <v>4.381477225479102e-08</v>
       </c>
       <c r="E66" t="n">
         <v>0.0004251305654179305</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.005952999927103519</v>
+        <v>2.255502273840193e-08</v>
       </c>
       <c r="E67" t="n">
         <v>0.0001859523035818711</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.004624363034963608</v>
+        <v>4.073498161005773e-08</v>
       </c>
       <c r="E68" t="n">
         <v>0.0007233520154841244</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01516171265393496</v>
+        <v>1.902586754809477e-09</v>
       </c>
       <c r="E69" t="n">
         <v>0.001020277151837945</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.006044433452188969</v>
+        <v>1.312873898484668e-08</v>
       </c>
       <c r="E70" t="n">
         <v>0.000751248502638191</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.006044433452188969</v>
+        <v>1.312873898484668e-08</v>
       </c>
       <c r="E71" t="n">
         <v>0.000751248502638191</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.005195011850446463</v>
+        <v>2.391576714444454e-08</v>
       </c>
       <c r="E72" t="n">
         <v>1.863684155978262e-05</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01396264601498842</v>
+        <v>1.929433679492831e-08</v>
       </c>
       <c r="E73" t="n">
         <v>0.0002801626396831125</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01457166485488415</v>
+        <v>6.733490920396434e-08</v>
       </c>
       <c r="E74" t="n">
         <v>0.000449105427833274</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01324560027569532</v>
+        <v>2.607075089144928e-08</v>
       </c>
       <c r="E75" t="n">
         <v>0.0001672023063292727</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01238723006099463</v>
+        <v>1.686292705471715e-08</v>
       </c>
       <c r="E76" t="n">
         <v>6.835784733993933e-05</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.001824646606110036</v>
+        <v>6.918014161527708e-09</v>
       </c>
       <c r="E77" t="n">
         <v>0.0003038877330254763</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02839390374720097</v>
+        <v>4.658523788947377e-09</v>
       </c>
       <c r="E78" t="n">
         <v>0.000490752630867064</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01776095107197762</v>
+        <v>3.887875354990911e-09</v>
       </c>
       <c r="E79" t="n">
         <v>0.0005105998134240508</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004240567795932293</v>
+        <v>1.286050110849146e-08</v>
       </c>
       <c r="E80" t="n">
         <v>0.0005791030707769096</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.005910515785217285</v>
+        <v>8.576263610393653e-08</v>
       </c>
       <c r="E81" t="n">
         <v>0.0002186638594139367</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02151944302022457</v>
+        <v>2.716011415770936e-08</v>
       </c>
       <c r="E82" t="n">
         <v>5.813926691189408e-05</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002972246147692204</v>
+        <v>1.721017106603995e-08</v>
       </c>
       <c r="E83" t="n">
         <v>8.42711961013265e-05</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.001033156644552946</v>
+        <v>6.153886844550982e-10</v>
       </c>
       <c r="E84" t="n">
         <v>0.000137404291308485</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.005476975347846746</v>
+        <v>2.651671104914044e-09</v>
       </c>
       <c r="E85" t="n">
         <v>0.0003822879807557911</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.004139638040214777</v>
+        <v>1.855236320125186e-08</v>
       </c>
       <c r="E86" t="n">
         <v>0.0005170650547370315</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004080300685018301</v>
+        <v>1.50501957563165e-08</v>
       </c>
       <c r="E87" t="n">
         <v>0.0001037715628626756</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.007195867598056793</v>
+        <v>3.8995158213595e-09</v>
       </c>
       <c r="E88" t="n">
         <v>0.0002424444392090663</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.009836689569056034</v>
+        <v>5.350241139012724e-09</v>
       </c>
       <c r="E89" t="n">
         <v>0.0002173684333683923</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.009185767732560635</v>
+        <v>1.868658144887902e-10</v>
       </c>
       <c r="E90" t="n">
         <v>3.866241968353279e-06</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01734851114451885</v>
+        <v>9.217053786869656e-09</v>
       </c>
       <c r="E91" t="n">
         <v>0.0017284972127527</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.009668201208114624</v>
+        <v>9.095264985603535e-09</v>
       </c>
       <c r="E92" t="n">
         <v>0.0001433242141501978</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.007265336345881224</v>
+        <v>2.192265036171648e-08</v>
       </c>
       <c r="E93" t="n">
         <v>0.0004087317502126098</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.005234387703239918</v>
+        <v>9.09240593927052e-09</v>
       </c>
       <c r="E94" t="n">
         <v>0.0004550923476926982</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01118790917098522</v>
+        <v>8.856877542484654e-08</v>
       </c>
       <c r="E95" t="n">
         <v>9.342905104858801e-05</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.008117896504700184</v>
+        <v>4.444088474997443e-08</v>
       </c>
       <c r="E96" t="n">
         <v>0.0005000689416192472</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.003462919499725103</v>
+        <v>9.002065759489142e-09</v>
       </c>
       <c r="E97" t="n">
         <v>0.01026526931673288</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01079333573579788</v>
+        <v>1.527914905707917e-09</v>
       </c>
       <c r="E98" t="n">
         <v>5.654739652527496e-05</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03796134889125824</v>
+        <v>2.545981425683408e-09</v>
       </c>
       <c r="E99" t="n">
         <v>0.0004404202336445451</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01021940447390079</v>
+        <v>4.249492135954824e-08</v>
       </c>
       <c r="E100" t="n">
         <v>0.000793831015471369</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.003980814479291439</v>
+        <v>3.966370287766807e-10</v>
       </c>
       <c r="E101" t="n">
         <v>9.996067092288285e-06</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
